--- a/doc/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/doc/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Lab\OC\P5_hattab_nassim\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="10470"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -25,44 +33,233 @@
     <t>Résultat observé</t>
   </si>
   <si>
-    <t>Une page d’accueil montrant (de manière dynamique) tous les articles disponibles à la vente.</t>
-  </si>
-  <si>
     <t>Ouvrir sur la page d'accueil du site web dans un navigateur</t>
   </si>
   <si>
     <t>Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t>OK / Description erreur</t>
-  </si>
-  <si>
-    <t>...</t>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t>Une page d’accueil montrant (de manière dynamique) tous les produits disponibles à la vente.</t>
+  </si>
+  <si>
+    <t>Redirige vers une page qui affiche les détails du produit</t>
+  </si>
+  <si>
+    <t>Le produit doit apparaitre dans la page "Panier"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour chaque produit, il faudra afficher l’image de celui-ci, ainsi que son nom et le début de sa description.
+</t>
+  </si>
+  <si>
+    <t>Ouvrir sur la page d'accueil du site web dans un navigateur.</t>
+  </si>
+  <si>
+    <t>Affichage de l’image, ainsi que le nom et le début de description pour chaque produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cliquant sur un produit, l'utilisateur sera redirigé sur la page du produit pour consulter celui-ci plus en détails  </t>
+  </si>
+  <si>
+    <t>La page produit aura un menu déroulant permettant à l'utilisateur
+de choisir une option de personnalisation, ainsi qu’un input pour saisir la quantité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur la page produit, clique sur le menu deroulant "Choisir une couleur" pour choisire la couleur et "Nombre d'acrticle(s)" pour choisire la quantité. </t>
+  </si>
+  <si>
+    <t>Affichage des options de personalisation dans le menu déroulant ainsi que la possiblilté de choisire la quantité.</t>
+  </si>
+  <si>
+    <t>Sur la page produit, la possibilité d'ajouter un produit au panier.</t>
+  </si>
+  <si>
+    <t>Sur la page Panier, l’utilisateur va pouvoir modifier la quantité d’un produit de son panier, à ce
+moment, le total du panier devra bien se mettre à jour.</t>
+  </si>
+  <si>
+    <t>Sur la page produit, cliqué sur le menu deroulant "Choisir une couleur" pour choisire la couleur et sur l'input "Nombre d'acrticle(s)" pour choisire la quantité. Puis, clique sur "Ajouter au Panier".</t>
+  </si>
+  <si>
+    <t>Ouvrir sur la page d'accueil du site web dans un navigateur. Cliqué sur un produit</t>
+  </si>
+  <si>
+    <t>La quantité total affiché doit changer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur la page Panier, l’utilisateur aura la possibilité de supprimer un produit de son panier, le produit devra disparaître de la page.
+</t>
+  </si>
+  <si>
+    <t>Le produit doit apparaitre de la page "Panier"</t>
+  </si>
+  <si>
+    <r>
+      <t>Sur la page panier,  saisir dans le formulaire de commande un email sans "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>" ou sans  domaine de premier niveau (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>.fr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> ) etc…</t>
+    </r>
+  </si>
+  <si>
+    <t>Sur la page panier, saisir dans le formulaire de commande un Prénom et un Nom incluant des chiffres</t>
+  </si>
+  <si>
+    <t>Validation des données saisies par les utilisateurs. L'email doit étres un email valide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation des données saisies par les utilisateurs. Le prénom et le nom ne doivent pas contenir des chiffres </t>
+  </si>
+  <si>
+    <t>Un message d'erreur affiché en dessous de chaque champ indiquant que la valeur n'est pas valide</t>
+  </si>
+  <si>
+    <t>Un message d'erreur affiché en dessous du champ email indiquant que l'adresse email n'est pas valide.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ajouter un produit au panier puis, sur la page panier cliqué sur les flèches haut ou bas de l'input "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Qté"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> pour changer la quantité.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajouter un produit au panier puis, sur la page panier, cliqué sur </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Supprimer</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si un produit est ajouté dans le panier à plusieurs reprises, avec la même couleur, celui-ci
+ne doit apparaître qu’une seule fois, mais avec le nombre d’exemplaires ajusté.
+</t>
+  </si>
+  <si>
+    <t>Sur la page produit, ajouter au panier plusieurs  produit du même modèle avec des couleurs differentes.</t>
+  </si>
+  <si>
+    <t>Sur la page produit, ajouter au panier une quantité de  2 produit identique (même couleur).</t>
+  </si>
+  <si>
+    <t>Les produits apparaissent en deux lignes distinctes avec la couleur et la quantité correspondantes indiqué à chauque fois.</t>
+  </si>
+  <si>
+    <t>Si un produit est ajouté dans le panier à plusieurs reprises, mais avec des couleurs
+différentes, il doit apparaître en deux lignes distinctes avec la couleur et la quantité
+correspondantes indiquées à chaque fois.</t>
+  </si>
+  <si>
+    <t>Le produit apparaît une seule fois avec la quantité ajustée.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Montserrat"/>
     </font>
   </fonts>
@@ -71,7 +268,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -80,8 +277,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
-    <border/>
+  <borders count="24">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -95,8 +298,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -106,6 +311,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -120,6 +326,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -134,6 +341,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -142,17 +350,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -161,9 +374,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -172,9 +387,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -189,8 +406,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -200,6 +419,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -214,6 +434,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -228,6 +449,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -242,8 +464,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -253,6 +477,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -267,6 +492,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -281,92 +507,220 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -556,208 +910,326 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.29"/>
-    <col customWidth="1" min="2" max="3" width="58.43"/>
-    <col customWidth="1" min="4" max="4" width="57.86"/>
-    <col customWidth="1" min="5" max="5" width="52.71"/>
+    <col min="1" max="1" width="7.28515625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="15" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="30" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="17" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="17" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="17" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="B8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="17" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="15" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="25"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="25"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="25"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="25"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="25"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="25"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="25"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="25"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="26"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/doc/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -92,9 +92,6 @@
   <si>
     <t xml:space="preserve">Sur la page Panier, l’utilisateur aura la possibilité de supprimer un produit de son panier, le produit devra disparaître de la page.
 </t>
-  </si>
-  <si>
-    <t>Le produit doit apparaitre de la page "Panier"</t>
   </si>
   <si>
     <r>
@@ -153,15 +150,6 @@
     </r>
   </si>
   <si>
-    <t>Sur la page panier, saisir dans le formulaire de commande un Prénom et un Nom incluant des chiffres</t>
-  </si>
-  <si>
-    <t>Validation des données saisies par les utilisateurs. L'email doit étres un email valide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation des données saisies par les utilisateurs. Le prénom et le nom ne doivent pas contenir des chiffres </t>
-  </si>
-  <si>
     <t>Un message d'erreur affiché en dessous de chaque champ indiquant que la valeur n'est pas valide</t>
   </si>
   <si>
@@ -190,8 +178,46 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ajouter un produit au panier puis, sur la page panier, cliqué sur </t>
+    <t xml:space="preserve"> Si un produit est ajouté dans le panier à plusieurs reprises, avec la même couleur, celui-ci
+ne doit apparaître qu’une seule fois, mais avec le nombre d’exemplaires ajusté.
+</t>
+  </si>
+  <si>
+    <t>Si un produit est ajouté dans le panier à plusieurs reprises, mais avec des couleurs
+différentes, il doit apparaître en deux lignes distinctes avec la couleur et la quantité
+correspondantes indiquées à chaque fois.</t>
+  </si>
+  <si>
+    <t>Le produit apparaît une seule fois avec la quantité ajustée.</t>
+  </si>
+  <si>
+    <t>Les produits apparaissent en plusieurs lignes distinctes avec la couleur et la quantité correspondantes indiqué à chauque fois.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans le panier, les produits doivent toujours apparaître de manière regroupée par modèle et par couleur.
+</t>
+  </si>
+  <si>
+    <t>Ajouter au panier plusieurs  produit du même modèle avec des couleurs differentes.</t>
+  </si>
+  <si>
+    <t>Ajouter au panier une quantité de  2 produit identique (même couleur).</t>
+  </si>
+  <si>
+    <t>Ajouter au panier plusieurs  produits de different modèles et couleurs.</t>
+  </si>
+  <si>
+    <t>les produits doivent toujours apparaître de manière regroupée par modèle et par couleur.</t>
+  </si>
+  <si>
+    <t>Validation des données saisies par les utilisateurs. L'email doit étres un email valide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur la page confirmation, l'utilisateur doit voir s'afficher son nuémro de commande. Il faudra veiller à ce que ce numéro ne soit stocké nulle part </t>
+  </si>
+  <si>
+    <r>
+      <t>Ajouter des produits au panier, puis sur la page panier, saisir le formulaire de commande, puis cliqué sur "</t>
     </r>
     <r>
       <rPr>
@@ -200,30 +226,42 @@
         <color theme="1"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>Supprimer</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Si un produit est ajouté dans le panier à plusieurs reprises, avec la même couleur, celui-ci
-ne doit apparaître qu’une seule fois, mais avec le nombre d’exemplaires ajusté.
-</t>
-  </si>
-  <si>
-    <t>Sur la page produit, ajouter au panier plusieurs  produit du même modèle avec des couleurs differentes.</t>
-  </si>
-  <si>
-    <t>Sur la page produit, ajouter au panier une quantité de  2 produit identique (même couleur).</t>
-  </si>
-  <si>
-    <t>Les produits apparaissent en deux lignes distinctes avec la couleur et la quantité correspondantes indiqué à chauque fois.</t>
-  </si>
-  <si>
-    <t>Si un produit est ajouté dans le panier à plusieurs reprises, mais avec des couleurs
-différentes, il doit apparaître en deux lignes distinctes avec la couleur et la quantité
-correspondantes indiquées à chaque fois.</t>
-  </si>
-  <si>
-    <t>Le produit apparaît une seule fois avec la quantité ajustée.</t>
+      <t>Commander!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+  </si>
+  <si>
+    <t>Une redirection vers la page de confirmation avec une URL  contenant le numéro de commande en paramètres  affichant le numéro de commande.</t>
+  </si>
+  <si>
+    <t>Le produit doit apparaitre de la page "Panier".</t>
+  </si>
+  <si>
+    <r>
+      <t>Ajouter un produit au panier, puis sur la page panier, cliqué sur "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Supprimer".</t>
+    </r>
+  </si>
+  <si>
+    <t>Sur la page panier, saisir dans le formulaire de commande un prénom et un nom incluant des chiffres.</t>
+  </si>
+  <si>
+    <t>Validation des données saisies par les utilisateurs. Le prénom et le nom ne doivent  contenir que des lettres.</t>
   </si>
 </sst>
 </file>
@@ -920,10 +958,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1035,18 +1073,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:5" s="17" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
       <c r="B7" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>6</v>
@@ -1054,102 +1090,122 @@
     </row>
     <row r="8" spans="1:5" s="17" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25">
+        <v>29</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="17" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="C10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25">
+      <c r="E10" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="17" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="C11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="17" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="15" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" s="15" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="25"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="B13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A15" s="25"/>
@@ -1222,11 +1278,18 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="26"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/doc/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -94,8 +94,94 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>Sur la page panier,  saisir dans le formulaire de commande un email sans "</t>
+    <t>Un message d'erreur affiché en dessous du champ email indiquant que l'adresse email n'est pas valide.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ajouter un produit au panier puis, sur la page panier cliqué sur les flèches haut ou bas de l'input "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Qté"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> pour changer la quantité.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si un produit est ajouté dans le panier à plusieurs reprises, avec la même couleur, celui-ci
+ne doit apparaître qu’une seule fois, mais avec le nombre d’exemplaires ajusté.
+</t>
+  </si>
+  <si>
+    <t>Si un produit est ajouté dans le panier à plusieurs reprises, mais avec des couleurs
+différentes, il doit apparaître en deux lignes distinctes avec la couleur et la quantité
+correspondantes indiquées à chaque fois.</t>
+  </si>
+  <si>
+    <t>Le produit apparaît une seule fois avec la quantité ajustée.</t>
+  </si>
+  <si>
+    <t>Les produits apparaissent en plusieurs lignes distinctes avec la couleur et la quantité correspondantes indiqué à chauque fois.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans le panier, les produits doivent toujours apparaître de manière regroupée par modèle et par couleur.
+</t>
+  </si>
+  <si>
+    <t>Ajouter au panier plusieurs  produit du même modèle avec des couleurs differentes.</t>
+  </si>
+  <si>
+    <t>Ajouter au panier une quantité de  2 produit identique (même couleur).</t>
+  </si>
+  <si>
+    <t>Ajouter au panier plusieurs  produits de different modèles et couleurs.</t>
+  </si>
+  <si>
+    <t>les produits doivent toujours apparaître de manière regroupée par modèle et par couleur.</t>
+  </si>
+  <si>
+    <t>Validation des données saisies par les utilisateurs. L'email doit étres un email valide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur la page confirmation, l'utilisateur doit voir s'afficher son nuémro de commande. Il faudra veiller à ce que ce numéro ne soit stocké nulle part </t>
+  </si>
+  <si>
+    <t>Une redirection vers la page de confirmation avec une URL  contenant le numéro de commande en paramètres  affichant le numéro de commande.</t>
+  </si>
+  <si>
+    <t>Le produit doit apparaitre de la page "Panier".</t>
+  </si>
+  <si>
+    <r>
+      <t>Ajouter un produit au panier, puis sur la page panier, cliqué sur "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Supprimer".</t>
+    </r>
+  </si>
+  <si>
+    <t>Validation des données saisies par les utilisateurs. Le prénom et le nom ne doivent  contenir que des lettres.</t>
+  </si>
+  <si>
+    <r>
+      <t>Sur la page panier, remplir le formulaire de commande avec un email sans "</t>
     </r>
     <r>
       <rPr>
@@ -146,78 +232,7 @@
         <color theme="1"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t xml:space="preserve"> ) etc…</t>
-    </r>
-  </si>
-  <si>
-    <t>Un message d'erreur affiché en dessous de chaque champ indiquant que la valeur n'est pas valide</t>
-  </si>
-  <si>
-    <t>Un message d'erreur affiché en dessous du champ email indiquant que l'adresse email n'est pas valide.</t>
-  </si>
-  <si>
-    <r>
-      <t>Ajouter un produit au panier puis, sur la page panier cliqué sur les flèches haut ou bas de l'input "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t>Qté"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Montserrat"/>
-      </rPr>
-      <t xml:space="preserve"> pour changer la quantité.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Si un produit est ajouté dans le panier à plusieurs reprises, avec la même couleur, celui-ci
-ne doit apparaître qu’une seule fois, mais avec le nombre d’exemplaires ajusté.
-</t>
-  </si>
-  <si>
-    <t>Si un produit est ajouté dans le panier à plusieurs reprises, mais avec des couleurs
-différentes, il doit apparaître en deux lignes distinctes avec la couleur et la quantité
-correspondantes indiquées à chaque fois.</t>
-  </si>
-  <si>
-    <t>Le produit apparaît une seule fois avec la quantité ajustée.</t>
-  </si>
-  <si>
-    <t>Les produits apparaissent en plusieurs lignes distinctes avec la couleur et la quantité correspondantes indiqué à chauque fois.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans le panier, les produits doivent toujours apparaître de manière regroupée par modèle et par couleur.
-</t>
-  </si>
-  <si>
-    <t>Ajouter au panier plusieurs  produit du même modèle avec des couleurs differentes.</t>
-  </si>
-  <si>
-    <t>Ajouter au panier une quantité de  2 produit identique (même couleur).</t>
-  </si>
-  <si>
-    <t>Ajouter au panier plusieurs  produits de different modèles et couleurs.</t>
-  </si>
-  <si>
-    <t>les produits doivent toujours apparaître de manière regroupée par modèle et par couleur.</t>
-  </si>
-  <si>
-    <t>Validation des données saisies par les utilisateurs. L'email doit étres un email valide.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sur la page confirmation, l'utilisateur doit voir s'afficher son nuémro de commande. Il faudra veiller à ce que ce numéro ne soit stocké nulle part </t>
-  </si>
-  <si>
-    <r>
-      <t>Ajouter des produits au panier, puis sur la page panier, saisir le formulaire de commande, puis cliqué sur "</t>
+      <t xml:space="preserve"> ) etc… et cliqué sur "</t>
     </r>
     <r>
       <rPr>
@@ -234,18 +249,12 @@
         <color theme="1"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-  </si>
-  <si>
-    <t>Une redirection vers la page de confirmation avec une URL  contenant le numéro de commande en paramètres  affichant le numéro de commande.</t>
-  </si>
-  <si>
-    <t>Le produit doit apparaitre de la page "Panier".</t>
-  </si>
-  <si>
-    <r>
-      <t>Ajouter un produit au panier, puis sur la page panier, cliqué sur "</t>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ajouter des produits au panier, puis sur la page panier, remplir le formulaire de commande, puis cliqué sur "</t>
     </r>
     <r>
       <rPr>
@@ -254,14 +263,22 @@
         <color theme="1"/>
         <rFont val="Montserrat"/>
       </rPr>
-      <t>Supprimer".</t>
-    </r>
-  </si>
-  <si>
-    <t>Sur la page panier, saisir dans le formulaire de commande un prénom et un nom incluant des chiffres.</t>
-  </si>
-  <si>
-    <t>Validation des données saisies par les utilisateurs. Le prénom et le nom ne doivent  contenir que des lettres.</t>
+      <t>Commander!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+  </si>
+  <si>
+    <t>Sur la page panier, remplir le formulaire de commande avec un prénom et un nom incluant des chiffres. Et cliqué sur "Commander!"</t>
+  </si>
+  <si>
+    <t>Un message d'erreur affiché en dessous de chaque champ (prénom et nom) indiquant que la valeur n'est pas valide</t>
   </si>
 </sst>
 </file>
@@ -961,7 +978,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1076,13 +1093,13 @@
     <row r="7" spans="1:5" s="17" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>6</v>
@@ -1093,13 +1110,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>6</v>
@@ -1110,13 +1127,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>6</v>
@@ -1130,7 +1147,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>21</v>
@@ -1147,10 +1164,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>6</v>
@@ -1161,13 +1178,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>6</v>
@@ -1178,13 +1195,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>6</v>
@@ -1192,16 +1209,16 @@
     </row>
     <row r="14" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>6</v>
